--- a/5.18_5.23/城市数据.xlsx
+++ b/5.18_5.23/城市数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93213195-F429-416B-ACE9-6A3E39A4D191}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F156824F-532E-4479-9461-ECD978CEF46D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1815" windowWidth="12645" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>地级市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,95 +39,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湛江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茂名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汕尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云浮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>人均可支配收入（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相对总需求量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湛江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茂名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>揭阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汕头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肇庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韶关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汕尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潮州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云浮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珠海</t>
+    <t>年龄得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总需求（Tb/s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-p-q</t>
+  </si>
+  <si>
+    <t>1-p-q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,8 +214,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -453,330 +499,959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="C2" s="1">
+        <f>100*34.4/B2</f>
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>55356</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E22" si="0">100*LN(D2)/LN(55356)</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1490.44</v>
+      </c>
+      <c r="G2">
+        <f>F2/14.9044</f>
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="e">
+        <f>C2*J2+E2*K2+G2*L2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" s="1" t="e">
+        <f>51.2*H2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" s="1">
+        <v>32.1</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C22" si="1">100*34.4/B3</f>
+        <v>107.16510903426791</v>
+      </c>
+      <c r="D3" s="1">
+        <v>57543</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>100.35477999312673</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1302.6600000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G22" si="2">F3/14.9044</f>
+        <v>87.401035935696839</v>
+      </c>
+      <c r="H3" s="1" t="e">
+        <f t="shared" ref="H3:H22" si="3">C3*J3+E3*K3+G3*L3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" s="1" t="e">
+        <f t="shared" ref="I3:I22" si="4">51.2*H3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>112.41830065359477</v>
+      </c>
+      <c r="D4" s="1">
+        <v>49331</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>98.944907365019759</v>
+      </c>
+      <c r="F4" s="1">
+        <v>839.22</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>56.306862403048761</v>
+      </c>
+      <c r="H4" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1490.44</v>
-      </c>
-      <c r="C2">
+      <c r="B5" s="1">
         <v>34.4</v>
       </c>
-      <c r="D2">
-        <v>55356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1302.6600000000001</v>
-      </c>
-      <c r="C3">
-        <v>32.1</v>
-      </c>
-      <c r="D3">
-        <v>57543</v>
-      </c>
-      <c r="E3">
-        <f>4.1382*10^14</f>
-        <v>413820000000000.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>49630</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>99.000236583561801</v>
+      </c>
+      <c r="F5" s="1">
+        <v>790.57</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>53.042725638066614</v>
+      </c>
+      <c r="H5" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>839.22</v>
-      </c>
-      <c r="C4">
-        <v>30.6</v>
-      </c>
-      <c r="D4">
-        <v>49331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>105.84615384615384</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21427</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>91.309529458521652</v>
+      </c>
+      <c r="F6" s="1">
+        <v>733.2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>49.19352674378036</v>
+      </c>
+      <c r="H6" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>790.57</v>
-      </c>
-      <c r="C5">
-        <v>34.4</v>
-      </c>
-      <c r="D5">
-        <v>49630</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>111.32686084142395</v>
+      </c>
+      <c r="D7" s="1">
+        <v>21350</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>91.276566440173738</v>
+      </c>
+      <c r="F7" s="1">
+        <v>631.32000000000005</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>42.357961407369636</v>
+      </c>
+      <c r="H7" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>733.2</v>
-      </c>
-      <c r="C6">
+      <c r="B8" s="1">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>107.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20042</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>90.697695089532232</v>
+      </c>
+      <c r="F8" s="1">
+        <v>608.94000000000005</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>40.856391401196966</v>
+      </c>
+      <c r="H8" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
         <v>32.5</v>
       </c>
-      <c r="D6">
-        <v>214.27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>631.32000000000005</v>
-      </c>
-      <c r="C7">
-        <v>30.9</v>
-      </c>
-      <c r="D7">
-        <v>21350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>105.84615384615384</v>
+      </c>
+      <c r="D9" s="1">
+        <v>24428</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>92.509710040578284</v>
+      </c>
+      <c r="F9" s="1">
+        <v>563.85</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>37.831110276160061</v>
+      </c>
+      <c r="H9" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>608.94000000000005</v>
-      </c>
-      <c r="C8">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>20042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B10" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>108.86075949367088</v>
+      </c>
+      <c r="D10" s="1">
+        <v>33930</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>95.518164465564993</v>
+      </c>
+      <c r="F10" s="1">
+        <v>483</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>32.406537666729285</v>
+      </c>
+      <c r="H10" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>563.85</v>
-      </c>
-      <c r="C9">
-        <v>32.5</v>
-      </c>
-      <c r="D9">
-        <v>24428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>99.710144927536234</v>
+      </c>
+      <c r="D11" s="1">
+        <v>29547</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>94.251700590335318</v>
+      </c>
+      <c r="F11" s="1">
+        <v>459.82</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>30.851292235849815</v>
+      </c>
+      <c r="H11" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>483</v>
-      </c>
-      <c r="C10">
-        <v>31.6</v>
-      </c>
-      <c r="D10">
-        <v>33930</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B12" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>101.77514792899409</v>
+      </c>
+      <c r="D12" s="1">
+        <v>21217</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>91.21934930455987</v>
+      </c>
+      <c r="F12" s="1">
+        <v>437.88</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>29.379243713265879</v>
+      </c>
+      <c r="H12" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>459.82</v>
-      </c>
-      <c r="C11">
+      <c r="B13" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>108.51735015772871</v>
+      </c>
+      <c r="D13" s="1">
+        <v>24071</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>92.374910200196496</v>
+      </c>
+      <c r="F13" s="1">
+        <v>415.17</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>27.855532594401652</v>
+      </c>
+      <c r="H13" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
         <v>34.5</v>
       </c>
-      <c r="D11">
-        <v>29547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>437.88</v>
-      </c>
-      <c r="C12">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="D12">
-        <v>21217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>99.710144927536234</v>
+      </c>
+      <c r="D14" s="1">
+        <v>22369</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>91.703468971119733</v>
+      </c>
+      <c r="F14" s="1">
+        <v>387.4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>25.992324414266925</v>
+      </c>
+      <c r="H14" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>415.17</v>
-      </c>
-      <c r="C13">
+      <c r="B15" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>102.68656716417911</v>
+      </c>
+      <c r="D15" s="1">
+        <v>46865</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>98.475362255845624</v>
+      </c>
+      <c r="F15" s="1">
+        <v>331</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>22.208206972437669</v>
+      </c>
+      <c r="H15" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
         <v>31.7</v>
       </c>
-      <c r="D13">
-        <v>24071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>387.4</v>
-      </c>
-      <c r="C14">
-        <v>34.5</v>
-      </c>
-      <c r="D14">
-        <v>22369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>108.51735015772871</v>
+      </c>
+      <c r="D16" s="1">
+        <v>19397</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>90.398180042189438</v>
+      </c>
+      <c r="F16" s="1">
+        <v>309.39</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>20.758299562545286</v>
+      </c>
+      <c r="H16" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>331</v>
-      </c>
-      <c r="C15">
-        <v>33.5</v>
-      </c>
-      <c r="D15">
-        <v>46865</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B17" s="1">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>99.135446685878961</v>
+      </c>
+      <c r="D17" s="1">
+        <v>23676</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>92.223412159711231</v>
+      </c>
+      <c r="F17" s="1">
+        <v>299.76</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>20.112181637637207</v>
+      </c>
+      <c r="H17" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>309.39</v>
-      </c>
-      <c r="C16">
-        <v>31.7</v>
-      </c>
-      <c r="D16">
-        <v>19397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B18" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>109.90415335463258</v>
+      </c>
+      <c r="D18" s="1">
+        <v>21001</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>91.125656554440667</v>
+      </c>
+      <c r="F18" s="1">
+        <v>299.36</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>20.085343925283809</v>
+      </c>
+      <c r="H18" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>299.76</v>
-      </c>
-      <c r="C17">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="D17">
-        <v>23676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B19" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>100.29154518950438</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20905</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>91.083705596160797</v>
+      </c>
+      <c r="F19" s="1">
+        <v>265.66000000000003</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>17.824266659509945</v>
+      </c>
+      <c r="H19" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>299.36</v>
-      </c>
-      <c r="C18">
-        <v>31.3</v>
-      </c>
-      <c r="D18">
-        <v>21001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B20" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>104.55927051671733</v>
+      </c>
+      <c r="D20" s="1">
+        <v>23150</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>92.017698536811011</v>
+      </c>
+      <c r="F20" s="1">
+        <v>255.56</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>17.146614422586619</v>
+      </c>
+      <c r="H20" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>265.66000000000003</v>
-      </c>
-      <c r="C19">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="D19">
-        <v>20905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B21" s="1">
+        <v>31.22</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>110.18577834721333</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19239</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>90.323291831811758</v>
+      </c>
+      <c r="F21" s="1">
+        <v>252.69</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>16.954053836450981</v>
+      </c>
+      <c r="H21" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>255.56</v>
-      </c>
-      <c r="C20">
-        <v>32.9</v>
-      </c>
-      <c r="D20">
-        <v>23150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>252.69</v>
-      </c>
-      <c r="C21">
-        <v>31.22</v>
-      </c>
-      <c r="D21">
-        <v>19239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
+      <c r="B22" s="1">
+        <v>33.4</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>102.99401197604791</v>
+      </c>
+      <c r="D22" s="1">
+        <v>48107</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>98.714857488861881</v>
+      </c>
+      <c r="F22" s="1">
         <v>189.11</v>
       </c>
-      <c r="C22">
-        <v>33.4</v>
-      </c>
-      <c r="D22">
-        <v>48107</v>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>12.688199457878211</v>
+      </c>
+      <c r="H22" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
